--- a/scope-creep.xlsx
+++ b/scope-creep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc-my.sharepoint.com/personal/daradu_microsoft_com/Documents/CSA-E/APRA/DVP.Sep 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\s\ado-bau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022F06F9-5413-4FA5-88CF-8EB5D665DFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6ECFE4-D9F7-4648-8630-8158D538F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{705F7DAB-EA04-4BD6-A882-D40B404CE5F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>Finance team can generate monthly expense reports</t>
+  </si>
+  <si>
+    <t>Investigation - Investigate and resolve API rate limiting issues</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Mobile app experiences memory leak causing crashes after extended use</t>
+  </si>
+  <si>
+    <t>Customer can update their profile information</t>
+  </si>
+  <si>
+    <t>Customer can view order history and track shipments</t>
+  </si>
+  <si>
+    <t>Customer can manage shopping cart across sessions</t>
+  </si>
+  <si>
+    <t>Payment processing fails for orders over</t>
   </si>
 </sst>
 </file>
@@ -502,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75860CEC-CD3F-4BEC-ABB2-5F2B1A0D010E}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.46484375" defaultRowHeight="15.85" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -557,50 +576,52 @@
     </row>
     <row r="2" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45666</v>
+      </c>
+      <c r="I2" s="3">
+        <v>867</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="I2" s="3">
-        <v>847</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4">
-        <v>8</v>
-      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="5">
-        <v>45786.231944444444</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -608,18 +629,43 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>18</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5">
+        <v>45666</v>
+      </c>
+      <c r="I3" s="3">
+        <v>847</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5">
+        <v>45786.231944444444</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -628,13 +674,34 @@
         <v>13</v>
       </c>
       <c r="E4" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>45666</v>
+      </c>
+      <c r="I4" s="3">
+        <v>852</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5">
+        <v>45817.405555555553</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -648,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -657,11 +724,95 @@
         <v>10</v>
       </c>
       <c r="G5" s="5">
-        <v>45666.231249999997</v>
+        <v>45666</v>
+      </c>
+      <c r="I5" s="3">
+        <v>853</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45817.40625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="3">
+        <v>855</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5">
+        <v>45817.40625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I7" s="3">
+        <v>850</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45878.570138888892</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G8" s="1"/>
+      <c r="I8" s="3">
+        <v>866</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45878.570138888892</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -715,13 +866,13 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4">
         <f>SUM(E2:E20)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="M21" s="4">
         <f>SUM(M2:M20)</f>
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
@@ -736,7 +887,7 @@
     <row r="24" spans="1:13" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>M21 / E21 * 100</f>
-        <v>30.76923076923077</v>
+        <v>63.414634146341463</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>IF(A24&gt;30%,"🔴 High: Review sprint planning process",
@@ -748,11 +899,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/850/?view=edit" xr:uid="{2A196450-A756-4612-BEB7-B24619D5362B}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/851/?view=edit" xr:uid="{D422951B-87DD-465C-A871-0DB244F5CA3B}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/856/?view=edit" xr:uid="{B2F2A9BF-08A2-488B-8664-F2D0DBF448B8}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/846/?view=edit" xr:uid="{C73A9809-2BDA-4F64-B991-F700340D2769}"/>
-    <hyperlink ref="I2" r:id="rId5" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/847/?view=edit" xr:uid="{3FA6C88E-A48E-4B26-8155-85E2B07761C3}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/851/?view=edit" xr:uid="{8159CEE0-AE34-4FAB-9CA6-19DF0D0777CC}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/856/?view=edit" xr:uid="{3C486B69-07A0-40F9-A9D4-8FAB2A62AB80}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/860/?view=edit" xr:uid="{DF476256-C5C2-4593-ADD4-74C0C595E003}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/846/?view=edit" xr:uid="{BAE046EB-C9EF-473C-B369-89A418F19EC7}"/>
+    <hyperlink ref="I2" r:id="rId5" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/867/?view=edit" xr:uid="{62916A0E-F6CB-450B-9F1E-713ABF94CAB9}"/>
+    <hyperlink ref="I3" r:id="rId6" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/847/?view=edit" xr:uid="{988B5729-AD76-46FF-B6F1-6ECB99DEA822}"/>
+    <hyperlink ref="I4" r:id="rId7" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/852/?view=edit" xr:uid="{FFC3016F-0B58-40E2-B325-4CDE29F2A16D}"/>
+    <hyperlink ref="I5" r:id="rId8" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/853/?view=edit" xr:uid="{36B65A63-0A67-4A6A-AAE1-0D49835F2B0F}"/>
+    <hyperlink ref="I6" r:id="rId9" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/855/?view=edit" xr:uid="{21D7B159-2039-42FC-A9AF-FE545281E748}"/>
+    <hyperlink ref="I7" r:id="rId10" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/850/?view=edit" xr:uid="{0F2AA146-29FF-4237-9FEB-B365E4B1E900}"/>
+    <hyperlink ref="I8" r:id="rId11" display="https://dev.azure.com/ZipZappAus/BAU/_workitems/edit/866/?view=edit" xr:uid="{B669484B-2A0D-4A00-938A-5F72F3543948}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
